--- a/services/test/entrada.xlsx
+++ b/services/test/entrada.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
-    <sheet name="Dados do escopo (DELFOS)" sheetId="1" r:id="rId1"/>
+    <sheet name="Dados" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
